--- a/public/import_sample.xlsx
+++ b/public/import_sample.xlsx
@@ -5,14 +5,15 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="股东信息新增" sheetId="1" r:id="rId4"/>
+    <sheet name="股东" sheetId="1" r:id="rId4"/>
     <sheet name="购入" sheetId="2" r:id="rId5"/>
+    <sheet name="赎回" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>股东姓名</t>
   </si>
@@ -41,6 +42,9 @@
     <t>股东类型</t>
   </si>
   <si>
+    <t>股东性质</t>
+  </si>
+  <si>
     <t>图图</t>
   </si>
   <si>
@@ -59,6 +63,9 @@
     <t>员工</t>
   </si>
   <si>
+    <t>自然人</t>
+  </si>
+  <si>
     <t>申购倍轻松股份数</t>
   </si>
   <si>
@@ -111,6 +118,9 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>表格 1</t>
   </si>
 </sst>
 </file>
@@ -122,7 +132,7 @@
     <numFmt numFmtId="59" formatCode="0.0000%"/>
     <numFmt numFmtId="60" formatCode="&quot; &quot;* #,##0.00&quot; &quot;;&quot; &quot;* &quot;-&quot;#,##0.00&quot; &quot;;&quot; &quot;* &quot;-&quot;??&quot; &quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -140,11 +150,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="11"/>
+      <color indexed="12"/>
       <name val="Segoe UI"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="13"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,12 +174,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="11"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -194,6 +221,19 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -333,13 +373,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -355,79 +500,112 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -449,8 +627,13 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffff00"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff191f25"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff323537"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -649,17 +832,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -687,10 +870,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -938,12 +1121,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1230,7 +1413,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1258,10 +1441,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1512,7 +1695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1525,8 +1708,8 @@
     <col min="6" max="6" width="24.3516" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.1719" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.6719" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85156" style="1" customWidth="1"/>
-    <col min="10" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.85156" style="1" customWidth="1"/>
+    <col min="11" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -1557,123 +1740,137 @@
       <c r="I1" t="s" s="4">
         <v>8</v>
       </c>
+      <c r="J1" t="s" s="5">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
-      <c r="A2" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s" s="5">
+      <c r="A2" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C2" s="6">
+      <c r="B2" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="C2" s="7">
         <v>521122</v>
       </c>
-      <c r="D2" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s" s="7">
+      <c r="D2" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="F2" s="6">
+      <c r="E2" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7">
         <v>12234</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="9">
         <v>15910001001</v>
       </c>
-      <c r="H2" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s" s="5">
+      <c r="H2" t="s" s="10">
         <v>14</v>
       </c>
+      <c r="I2" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s" s="11">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1692,265 +1889,265 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.3516" style="11" customWidth="1"/>
-    <col min="3" max="5" width="19.6719" style="11" customWidth="1"/>
-    <col min="6" max="6" width="13.1719" style="11" customWidth="1"/>
-    <col min="7" max="7" width="15.1719" style="11" customWidth="1"/>
-    <col min="8" max="8" width="17.3516" style="11" customWidth="1"/>
-    <col min="9" max="13" width="13" style="11" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="11" customWidth="1"/>
-    <col min="15" max="19" width="8.85156" style="11" customWidth="1"/>
-    <col min="20" max="256" width="8.85156" style="11" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="13" customWidth="1"/>
+    <col min="2" max="2" width="17.3516" style="13" customWidth="1"/>
+    <col min="3" max="5" width="19.6719" style="13" customWidth="1"/>
+    <col min="6" max="6" width="13.1719" style="13" customWidth="1"/>
+    <col min="7" max="7" width="15.1719" style="13" customWidth="1"/>
+    <col min="8" max="8" width="17.3516" style="13" customWidth="1"/>
+    <col min="9" max="13" width="13" style="13" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="13" customWidth="1"/>
+    <col min="15" max="19" width="8.85156" style="13" customWidth="1"/>
+    <col min="20" max="256" width="8.85156" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1">
-      <c r="A1" t="s" s="12">
+      <c r="A1" t="s" s="14">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s" s="13">
+      <c r="B1" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="E1" t="s" s="13">
+      <c r="C1" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="H1" t="s" s="12">
+      <c r="F1" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="I1" t="s" s="14">
+      <c r="G1" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="J1" t="s" s="14">
+      <c r="H1" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="K1" t="s" s="14">
+      <c r="I1" t="s" s="16">
         <v>24</v>
       </c>
-      <c r="L1" t="s" s="14">
+      <c r="J1" t="s" s="16">
         <v>25</v>
       </c>
-      <c r="M1" t="s" s="14">
+      <c r="K1" t="s" s="16">
         <v>26</v>
       </c>
-      <c r="N1" t="s" s="14">
+      <c r="L1" t="s" s="16">
         <v>27</v>
       </c>
-      <c r="O1" t="s" s="15">
+      <c r="M1" t="s" s="16">
         <v>28</v>
       </c>
-      <c r="P1" t="s" s="14">
+      <c r="N1" t="s" s="16">
         <v>29</v>
       </c>
-      <c r="Q1" t="s" s="14">
+      <c r="O1" t="s" s="17">
         <v>30</v>
       </c>
-      <c r="R1" t="s" s="14">
+      <c r="P1" t="s" s="16">
         <v>31</v>
       </c>
-      <c r="S1" t="s" s="14">
+      <c r="Q1" t="s" s="16">
         <v>32</v>
       </c>
+      <c r="R1" t="s" s="16">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s" s="16">
+        <v>34</v>
+      </c>
     </row>
     <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="21"/>
     </row>
     <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="23"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="25"/>
     </row>
     <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="26"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="28"/>
     </row>
     <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="26"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="28"/>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="26"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="28"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="26"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="28"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="26"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="28"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="26"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="28"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="29"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1959,4 +2156,112 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="16.3516" style="32" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20" customHeight="1">
+      <c r="A1" t="s" s="33">
+        <v>35</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" ht="15.55" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" ht="15.55" customHeight="1">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+    </row>
+    <row r="4" ht="15.35" customHeight="1">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+    </row>
+    <row r="5" ht="15.35" customHeight="1">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+    </row>
+    <row r="6" ht="15.35" customHeight="1">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+    </row>
+    <row r="7" ht="15.35" customHeight="1">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" ht="15.35" customHeight="1">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" ht="15.35" customHeight="1">
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+    </row>
+    <row r="10" ht="15.35" customHeight="1">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+    </row>
+    <row r="11" ht="15.35" customHeight="1">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>